--- a/ancient_glass/合并表格.xlsx
+++ b/ancient_glass/合并表格.xlsx
@@ -432,7 +432,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
